--- a/differences/excel/UthmanicBazzi V20_vs_UthmanicQunbul V20.xlsx
+++ b/differences/excel/UthmanicBazzi V20_vs_UthmanicQunbul V20.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="320">
   <si>
     <t>Source 1</t>
   </si>
@@ -54,6 +54,12 @@
     <t># Chapter Count Differences</t>
   </si>
   <si>
+    <t>UthmanicBazzi V20.json</t>
+  </si>
+  <si>
+    <t>UthmanicQunbul V20.json</t>
+  </si>
+  <si>
     <t>Words 1</t>
   </si>
   <si>
@@ -72,6 +78,30 @@
     <t>Chapter # 2</t>
   </si>
   <si>
+    <t>['جَا', 'ءَالَ']</t>
+  </si>
+  <si>
+    <t>['لَأُاْقۡسِمُ']</t>
+  </si>
+  <si>
+    <t>['جَآءَ', 'ا۟لَ']</t>
+  </si>
+  <si>
+    <t>['لَاْ', 'أُقۡسِمُ']</t>
+  </si>
+  <si>
+    <t>[432, 434]</t>
+  </si>
+  <si>
+    <t>[260, 262]</t>
+  </si>
+  <si>
+    <t>[4, 5]</t>
+  </si>
+  <si>
+    <t>[4, 6]</t>
+  </si>
+  <si>
     <t>Letter 1</t>
   </si>
   <si>
@@ -96,25 +126,862 @@
     <t>Word Index 2</t>
   </si>
   <si>
+    <t>ي</t>
+  </si>
+  <si>
+    <t>ت</t>
+  </si>
+  <si>
+    <t>ن</t>
+  </si>
+  <si>
+    <t>هلا</t>
+  </si>
+  <si>
+    <t>ٱلسفها</t>
+  </si>
+  <si>
+    <t>ٱلنسا</t>
+  </si>
+  <si>
+    <t>جا</t>
+  </si>
+  <si>
+    <t>تلقا</t>
+  </si>
+  <si>
+    <t>ءامنتم</t>
+  </si>
+  <si>
+    <t>حـي</t>
+  </si>
+  <si>
+    <t>ورا</t>
+  </si>
+  <si>
+    <t>بٱلسو</t>
+  </si>
+  <si>
+    <t>ٱستيسوا</t>
+  </si>
+  <si>
+    <t>تايسوا</t>
+  </si>
+  <si>
+    <t>يايس</t>
+  </si>
+  <si>
+    <t>ٱستيس</t>
+  </si>
+  <si>
+    <t>وجا</t>
+  </si>
+  <si>
+    <t>ٱلسما</t>
+  </si>
+  <si>
+    <t>ٱلبغا</t>
+  </si>
+  <si>
+    <t>شا</t>
+  </si>
+  <si>
+    <t>ليذيقهم</t>
+  </si>
+  <si>
+    <t>أبنا</t>
+  </si>
+  <si>
+    <t>أهلا</t>
+  </si>
+  <si>
+    <t>بٱلسوق</t>
+  </si>
+  <si>
+    <t>لتنذر</t>
+  </si>
+  <si>
+    <t>أوليا</t>
+  </si>
+  <si>
+    <t>سوقه</t>
+  </si>
+  <si>
+    <t>لأاقسم</t>
+  </si>
+  <si>
+    <t>رءاه</t>
+  </si>
+  <si>
+    <t>هلاء</t>
+  </si>
+  <si>
+    <t>ٱلسفهاء</t>
+  </si>
+  <si>
+    <t>ٱلنساء</t>
+  </si>
+  <si>
+    <t>جاء</t>
+  </si>
+  <si>
+    <t>تلقاء</t>
+  </si>
+  <si>
+    <t>امنتم</t>
+  </si>
+  <si>
+    <t>حي</t>
+  </si>
+  <si>
+    <t>وراء</t>
+  </si>
+  <si>
+    <t>بٱلسوء</t>
+  </si>
+  <si>
+    <t>ٱستيـسوا</t>
+  </si>
+  <si>
+    <t>تايـسوا</t>
+  </si>
+  <si>
+    <t>يايـس</t>
+  </si>
+  <si>
+    <t>ٱستيـس</t>
+  </si>
+  <si>
+    <t>وجاء</t>
+  </si>
+  <si>
+    <t>ٱلسماء</t>
+  </si>
+  <si>
+    <t>ٱلبغاء</t>
+  </si>
+  <si>
+    <t>شاء</t>
+  </si>
+  <si>
+    <t>لنذيقهم</t>
+  </si>
+  <si>
+    <t>أبناء</t>
+  </si>
+  <si>
+    <t>أهلاء</t>
+  </si>
+  <si>
+    <t>بٱلسق</t>
+  </si>
+  <si>
+    <t>لينذر</t>
+  </si>
+  <si>
+    <t>أولياء</t>
+  </si>
+  <si>
+    <t>سقه</t>
+  </si>
+  <si>
+    <t>لا</t>
+  </si>
+  <si>
+    <t>رأه</t>
+  </si>
+  <si>
+    <t>إ</t>
+  </si>
+  <si>
+    <t>ا</t>
+  </si>
+  <si>
+    <t>أ</t>
+  </si>
+  <si>
+    <t>ئ</t>
+  </si>
+  <si>
+    <t>إِن</t>
+  </si>
+  <si>
+    <t>لَا۬عۡنَتَكُمُۥۚ</t>
+  </si>
+  <si>
+    <t>أَمۡوَٰلَكُمُ</t>
+  </si>
+  <si>
+    <t>إِلَّا</t>
+  </si>
+  <si>
+    <t>أَحَدٞ</t>
+  </si>
+  <si>
+    <t>أَحَدَكُمُ</t>
+  </si>
+  <si>
+    <t>أَجَلُهُمُۥ</t>
+  </si>
+  <si>
+    <t>أَصۡحَٰبِ</t>
+  </si>
+  <si>
+    <t>ضِيَآءٗ</t>
+  </si>
+  <si>
+    <t>وَلَأَ</t>
+  </si>
+  <si>
+    <t>اْدۡرَىٰكُمُۥ</t>
+  </si>
+  <si>
+    <t>أَمۡرُنَا</t>
+  </si>
+  <si>
+    <t>إِسۡحَٰقَ</t>
+  </si>
+  <si>
+    <t>أَمۡرُ</t>
+  </si>
+  <si>
+    <t>أَهۡلُ</t>
+  </si>
+  <si>
+    <t>وَضِيَآءٗ</t>
+  </si>
+  <si>
+    <t>أَن</t>
+  </si>
+  <si>
+    <t>أَحَدَهُمُ</t>
+  </si>
+  <si>
+    <t>إِنۡ</t>
+  </si>
+  <si>
+    <t>سَاقَيۡهَاۚ</t>
+  </si>
+  <si>
+    <t>بِضِيَآءٍۚ</t>
+  </si>
+  <si>
+    <t>إِلَى</t>
+  </si>
+  <si>
+    <t>أَوۡ</t>
+  </si>
+  <si>
+    <t>إِنِ</t>
+  </si>
+  <si>
+    <t>إِخۡوَٰنِهِنَّ</t>
+  </si>
+  <si>
+    <t>إِنَّ</t>
+  </si>
+  <si>
+    <t>إِيَّاكُمُۥ</t>
+  </si>
+  <si>
+    <t>إِلَٰهٞ</t>
+  </si>
+  <si>
+    <t>أُوْلَٰٓئِكَ</t>
+  </si>
+  <si>
+    <t>أَشۡرَاطُهَاۚ</t>
+  </si>
+  <si>
+    <t>أَجَلُهَاۚ</t>
+  </si>
+  <si>
+    <t>أَنشَرَهُۥ</t>
+  </si>
+  <si>
+    <t>ا۪ن</t>
+  </si>
+  <si>
+    <t>لَأَعۡنَتَكُمُۥۚ</t>
+  </si>
+  <si>
+    <t>ا۬مۡوَٰلَكُمُ</t>
+  </si>
+  <si>
+    <t>ا۪لَّا</t>
+  </si>
+  <si>
+    <t>ا۬حَدٞ</t>
+  </si>
+  <si>
+    <t>ا۬حَدَكُمُ</t>
+  </si>
+  <si>
+    <t>ا۬جَلُهُمُۥ</t>
+  </si>
+  <si>
+    <t>ا۬صۡحَٰبِ</t>
+  </si>
+  <si>
+    <t>ضِئَآءٗ</t>
+  </si>
+  <si>
+    <t>وَلَا</t>
+  </si>
+  <si>
+    <t>أَدۡرَىٰكُمُۥ</t>
+  </si>
+  <si>
+    <t>ا۬مۡرُنَا</t>
+  </si>
+  <si>
+    <t>ا۪سۡحَٰقَ</t>
+  </si>
+  <si>
+    <t>ا۬مۡرُ</t>
+  </si>
+  <si>
+    <t>ا۬هۡلُ</t>
+  </si>
+  <si>
+    <t>وَضِئَآءٗ</t>
+  </si>
+  <si>
+    <t>ا۬ن</t>
+  </si>
+  <si>
+    <t>ا۬حَدَهُمُ</t>
+  </si>
+  <si>
+    <t>ا۪نۡ</t>
+  </si>
+  <si>
+    <t>سَأۡقَيۡهَاۚ</t>
+  </si>
+  <si>
+    <t>بِضِئَآءٍۚ</t>
+  </si>
+  <si>
+    <t>ا۪لَى</t>
+  </si>
+  <si>
+    <t>ا۬وۡ</t>
+  </si>
+  <si>
+    <t>ا۪نِ</t>
+  </si>
+  <si>
+    <t>ا۪خۡوَٰنِهِنَّ</t>
+  </si>
+  <si>
+    <t>ا۪نَّ</t>
+  </si>
+  <si>
+    <t>ا۪يَّاكُمُۥ</t>
+  </si>
+  <si>
+    <t>ا۪لَٰهٞ</t>
+  </si>
+  <si>
+    <t>ا۬وْلَٰٓئِكَ</t>
+  </si>
+  <si>
+    <t>ا۬شۡرَاطُهَاۚ</t>
+  </si>
+  <si>
+    <t>ا۬جَلُهَاۚ</t>
+  </si>
+  <si>
+    <t>ا۬نشَرَهُۥ</t>
+  </si>
+  <si>
+    <t>ٱلصِّرَٰطَ</t>
+  </si>
+  <si>
+    <t>صِرَٰطَ</t>
+  </si>
+  <si>
+    <t>صِرَٰطٖ</t>
+  </si>
+  <si>
+    <t>خُطۡوَٰتِ</t>
+  </si>
+  <si>
+    <t>وَيَبۡصُطُ</t>
+  </si>
+  <si>
+    <t>وَلَآ</t>
+  </si>
+  <si>
+    <t>تَّيَمَّمُواْ</t>
+  </si>
+  <si>
+    <t>صِرَٰطٞ</t>
+  </si>
+  <si>
+    <t>هَٰأَنتُمُۥ</t>
+  </si>
+  <si>
+    <t>تَّفَرَّقُواْۚ</t>
+  </si>
+  <si>
+    <t>صِرَٰطٗا</t>
+  </si>
+  <si>
+    <t>تَّوَفَّىٰهُمُ</t>
+  </si>
+  <si>
+    <t>أُنزِلَ</t>
+  </si>
+  <si>
+    <t>تَّعَاوَنُواْ</t>
+  </si>
+  <si>
+    <t>يُشۡعِرُكُمُۥۘ</t>
+  </si>
+  <si>
+    <t>صِرَٰطُ</t>
+  </si>
+  <si>
+    <t>صِرَٰطِي</t>
+  </si>
+  <si>
+    <t>فَتَّفَرَّقَ</t>
+  </si>
+  <si>
+    <t>صِرَٰطَكَ</t>
+  </si>
+  <si>
+    <t>أَنَّ</t>
+  </si>
+  <si>
+    <t>لَعۡنَةَ</t>
+  </si>
+  <si>
+    <t>بَصۡطَةٗۖ</t>
+  </si>
+  <si>
+    <t>تَّلَقَّفُ</t>
+  </si>
+  <si>
+    <t>تَّوَلَّوۡاْ</t>
+  </si>
+  <si>
+    <t>تَّنَٰزَعُواْ</t>
+  </si>
+  <si>
+    <t>تَّرَبَّصُونَ</t>
+  </si>
+  <si>
+    <t>وَلَٰكِنِّيَ</t>
+  </si>
+  <si>
+    <t>ٱرۡكَبۡ</t>
+  </si>
+  <si>
+    <t>مَعَنَا</t>
+  </si>
+  <si>
+    <t>فَطَرَنِيَۚ</t>
+  </si>
+  <si>
+    <t>إِنِّيَ</t>
+  </si>
+  <si>
+    <t>لَآ</t>
+  </si>
+  <si>
+    <t>تَّكَلَّمُ</t>
+  </si>
+  <si>
+    <t>يَتَّقِ</t>
+  </si>
+  <si>
+    <t>هَادٍ</t>
+  </si>
+  <si>
+    <t>وَالٍ</t>
+  </si>
+  <si>
+    <t>هَادٖ</t>
+  </si>
+  <si>
+    <t>وَاقٖ</t>
+  </si>
+  <si>
+    <t>صِرَٰطِ</t>
+  </si>
+  <si>
+    <t>دُعَآءِۦ</t>
+  </si>
+  <si>
+    <t>مَآ</t>
+  </si>
+  <si>
+    <t>تَّنَزَّلُ</t>
+  </si>
+  <si>
+    <t>صِرَٰطٌ</t>
+  </si>
+  <si>
+    <t>بَاقٖۗ</t>
+  </si>
+  <si>
+    <t>تَّلَقَّفۡ</t>
+  </si>
+  <si>
+    <t>ٱلصِّرَٰطِ</t>
+  </si>
+  <si>
+    <t>لۡيَقۡضُواْ</t>
+  </si>
+  <si>
+    <t>تَّلَقَّوۡنَهُۥ</t>
+  </si>
+  <si>
+    <t>سَحَابُ</t>
+  </si>
+  <si>
+    <t>قَوۡمِيَ</t>
+  </si>
+  <si>
+    <t>أَوۡزِعۡنِيَ</t>
+  </si>
+  <si>
+    <t>سَبَأَ</t>
+  </si>
+  <si>
+    <t>عِندِيۚ</t>
+  </si>
+  <si>
+    <t>يَٰبُنَيَّ</t>
+  </si>
+  <si>
+    <t>ٱلَّـٰٓيۡ</t>
+  </si>
+  <si>
+    <t>تَّبَرَّجۡنَ</t>
+  </si>
+  <si>
+    <t>تَّبَدَّلَ</t>
+  </si>
+  <si>
+    <t>لِسَبَأَ</t>
+  </si>
+  <si>
+    <t>تَّنَاصَرُونَ</t>
+  </si>
+  <si>
+    <t>ٱلَّذَيۡنِّ</t>
+  </si>
+  <si>
+    <t>حمٓ</t>
+  </si>
+  <si>
+    <t>تَحۡتِيَۚ</t>
+  </si>
+  <si>
+    <t>تَّنَابَزُواْ</t>
+  </si>
+  <si>
+    <t>تَّجَسَّسُواْ</t>
+  </si>
+  <si>
+    <t>لِتَّعَارَفُواْۚ</t>
+  </si>
+  <si>
+    <t>ٱلۡمُصَيۡطِرُونَ</t>
+  </si>
+  <si>
+    <t>ٱلدَّاعِۦ</t>
+  </si>
+  <si>
+    <t>ٱلَّٰٓيۡ</t>
+  </si>
+  <si>
+    <t>تَّوَلَّوۡهُمُۥۚ</t>
+  </si>
+  <si>
+    <t>خُشُبٞ</t>
+  </si>
+  <si>
+    <t>وَٱلَّٰٓيۡ</t>
+  </si>
+  <si>
+    <t>تَّمَيَّزُ</t>
+  </si>
+  <si>
+    <t>لَمَآ</t>
+  </si>
+  <si>
+    <t>تَّخَيَّرُونَ</t>
+  </si>
+  <si>
+    <t>عَنۡهُۥٓ</t>
+  </si>
+  <si>
+    <t>تَّلَهَّىٰ</t>
+  </si>
+  <si>
+    <t>أَكۡرَمَنِۦ</t>
+  </si>
+  <si>
+    <t>أَهَٰنَنِۦ</t>
+  </si>
+  <si>
+    <t>تَّلَظَّىٰ</t>
+  </si>
+  <si>
+    <t>ٱلصِّۜرَٰطَ</t>
+  </si>
+  <si>
+    <t>صِۜرَٰطَ</t>
+  </si>
+  <si>
+    <t>صِۜرَٰطٖ</t>
+  </si>
+  <si>
+    <t>خُطُوَٰتِ</t>
+  </si>
+  <si>
+    <t>وَيَبۡصُۜطُ</t>
+  </si>
+  <si>
+    <t>تَيَمَّمُواْ</t>
+  </si>
+  <si>
+    <t>صِۜرَٰطٞ</t>
+  </si>
+  <si>
+    <t>هَأَنتُمُۥ</t>
+  </si>
+  <si>
+    <t>تَفَرَّقُواْۚ</t>
+  </si>
+  <si>
+    <t>صِۜرَٰطٗا</t>
+  </si>
+  <si>
+    <t>تَوَفَّىٰهُمُ</t>
+  </si>
+  <si>
+    <t>أُنزَلَ</t>
+  </si>
+  <si>
+    <t>تَعَاوَنُواْ</t>
+  </si>
+  <si>
+    <t>يُشۡعِرُكُمُۥ</t>
+  </si>
+  <si>
+    <t>صِۜرَٰطُ</t>
+  </si>
+  <si>
+    <t>صِۜرَٰطِي</t>
+  </si>
+  <si>
+    <t>فَتَفَرَّقَ</t>
+  </si>
+  <si>
+    <t>صِۜرَٰطَكَ</t>
+  </si>
+  <si>
+    <t>لَّعۡنَةُ</t>
+  </si>
+  <si>
+    <t>بَصۜۡطَةٗۖ</t>
+  </si>
+  <si>
+    <t>تَلَقَّفُ</t>
+  </si>
+  <si>
+    <t>تَوَلَّوۡاْ</t>
+  </si>
+  <si>
+    <t>تَنَٰزَعُواْ</t>
+  </si>
+  <si>
+    <t>تَرَبَّصُونَ</t>
+  </si>
+  <si>
+    <t>وَلَٰكِنِّي</t>
+  </si>
+  <si>
+    <t>ٱرۡكَب</t>
+  </si>
+  <si>
+    <t>مَّعَنَا</t>
+  </si>
+  <si>
+    <t>فَطَرَنِيۚ</t>
+  </si>
+  <si>
+    <t>إِنِّي</t>
+  </si>
+  <si>
+    <t>لَا</t>
+  </si>
+  <si>
+    <t>تَكَلَّمُ</t>
+  </si>
+  <si>
+    <t>يَتَّقِۦ</t>
+  </si>
+  <si>
+    <t>هَادِۦ</t>
+  </si>
+  <si>
+    <t>وَالِۦ</t>
+  </si>
+  <si>
+    <t>وَاقِۦ</t>
+  </si>
+  <si>
+    <t>صِۜرَٰطِ</t>
+  </si>
+  <si>
+    <t>دُعَآءِ</t>
+  </si>
+  <si>
+    <t>مَا</t>
+  </si>
+  <si>
+    <t>تَنَزَّلُ</t>
+  </si>
+  <si>
+    <t>صِۜرَٰطٌ</t>
+  </si>
+  <si>
+    <t>بَاقِۦۗ</t>
+  </si>
+  <si>
+    <t>تَلَقَّفۡ</t>
+  </si>
+  <si>
+    <t>ٱلصِّۜرَٰطِ</t>
+  </si>
+  <si>
+    <t>لِيَقۡضُواْ</t>
+  </si>
+  <si>
+    <t>تَلَقَّوۡنَهُۥ</t>
+  </si>
+  <si>
+    <t>سَحَابٞۚ</t>
+  </si>
+  <si>
+    <t>قَوۡمِي</t>
+  </si>
+  <si>
+    <t>أَوۡزِعۡنِي</t>
+  </si>
+  <si>
+    <t>سَبَأۡ</t>
+  </si>
+  <si>
+    <t>عِندِيَۚ</t>
+  </si>
+  <si>
+    <t>يَٰبُنَيۡ</t>
+  </si>
+  <si>
+    <t>ٱلَّـٰٓيِٕ</t>
+  </si>
+  <si>
+    <t>تَبَرَّجۡنَ</t>
+  </si>
+  <si>
+    <t>تَبَدَّلَ</t>
+  </si>
+  <si>
+    <t>لِسَبَأۡ</t>
+  </si>
+  <si>
+    <t>تَنَاصَرُونَ</t>
+  </si>
+  <si>
+    <t>ٱلَّذَيۡٓنِّ</t>
+  </si>
+  <si>
+    <t>حمٓۚ</t>
+  </si>
+  <si>
+    <t>تَحۡتِيۚ</t>
+  </si>
+  <si>
+    <t>تَنَابَزُواْ</t>
+  </si>
+  <si>
+    <t>تَجَسَّسُواْ</t>
+  </si>
+  <si>
+    <t>لِتَعَارَفُواْۚ</t>
+  </si>
+  <si>
+    <t>ٱلۡمُصَۜيۡطِرُونَ</t>
+  </si>
+  <si>
+    <t>ٱلدَّاعِ</t>
+  </si>
+  <si>
+    <t>ٱلَّٰٓيِٕ</t>
+  </si>
+  <si>
+    <t>تَوَلَّوۡهُمُۥۚ</t>
+  </si>
+  <si>
+    <t>خُشۡبٞ</t>
+  </si>
+  <si>
+    <t>وَٱلَّٰٓيِٕ</t>
+  </si>
+  <si>
+    <t>تَمَيَّزُ</t>
+  </si>
+  <si>
+    <t>لَمَا</t>
+  </si>
+  <si>
+    <t>تَخَيَّرُونَ</t>
+  </si>
+  <si>
+    <t>عَنۡهُۥ</t>
+  </si>
+  <si>
+    <t>تَلَهَّىٰ</t>
+  </si>
+  <si>
+    <t>أَكۡرَمَنِ</t>
+  </si>
+  <si>
+    <t>أَهَٰنَنِ</t>
+  </si>
+  <si>
+    <t>تَلَظَّىٰ</t>
+  </si>
+  <si>
     <t>Name 1</t>
   </si>
   <si>
     <t>Name 2</t>
   </si>
   <si>
+    <t>سُورَةُ سَبَأَ</t>
+  </si>
+  <si>
+    <t>سُورَةُ الكَوثَرِ</t>
+  </si>
+  <si>
+    <t>سُورَةُ سَبَأۡ</t>
+  </si>
+  <si>
+    <t>سُورَةُ الكَوۡثَرِ</t>
+  </si>
+  <si>
     <t>Count 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Count 2</t>
-  </si>
-  <si>
     <t>Count 2</t>
-  </si>
-  <si>
-    <t>Chapter Index 1</t>
-  </si>
-  <si>
-    <t>Chapter Index 2</t>
   </si>
 </sst>
 </file>
@@ -472,13 +1339,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,6 +1375,41 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>139</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -517,30 +1419,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
         <v>15</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -550,42 +1521,1423 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2">
+        <v>465</v>
+      </c>
+      <c r="I2">
+        <v>465</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3">
+        <v>92</v>
+      </c>
+      <c r="I3">
+        <v>92</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4">
+        <v>541</v>
+      </c>
+      <c r="I4">
+        <v>541</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5">
+        <v>608</v>
+      </c>
+      <c r="I5">
+        <v>608</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6">
+        <v>1044</v>
+      </c>
+      <c r="I6">
+        <v>1044</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7">
+        <v>242</v>
+      </c>
+      <c r="I7">
+        <v>242</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8">
+        <v>1009</v>
+      </c>
+      <c r="I8">
+        <v>1009</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9">
+        <v>468</v>
+      </c>
+      <c r="I9">
+        <v>468</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10">
+        <v>738</v>
+      </c>
+      <c r="I10">
+        <v>738</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11">
+        <v>1826</v>
+      </c>
+      <c r="I11">
+        <v>1826</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <v>655</v>
+      </c>
+      <c r="I12">
+        <v>655</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13">
+        <v>909</v>
+      </c>
+      <c r="I13">
+        <v>909</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14">
+        <v>649</v>
+      </c>
+      <c r="I14">
+        <v>649</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>962</v>
+      </c>
+      <c r="I15">
+        <v>962</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16">
+        <v>1103</v>
+      </c>
+      <c r="I16">
+        <v>1103</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17">
+        <v>1179</v>
+      </c>
+      <c r="I17">
+        <v>1179</v>
+      </c>
+      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18">
+        <v>1230</v>
+      </c>
+      <c r="I18">
+        <v>1230</v>
+      </c>
+      <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19">
+        <v>1331</v>
+      </c>
+      <c r="I19">
+        <v>1331</v>
+      </c>
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20">
+        <v>1540</v>
+      </c>
+      <c r="I20">
+        <v>1540</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21">
+        <v>1627</v>
+      </c>
+      <c r="I21">
+        <v>1627</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22">
+        <v>857</v>
+      </c>
+      <c r="I22">
+        <v>857</v>
+      </c>
+      <c r="J22">
+        <v>12</v>
+      </c>
+      <c r="K22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23">
+        <v>1270</v>
+      </c>
+      <c r="I23">
+        <v>1270</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24">
+        <v>1396</v>
+      </c>
+      <c r="I24">
+        <v>1396</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25">
+        <v>1402</v>
+      </c>
+      <c r="I25">
+        <v>1402</v>
+      </c>
+      <c r="J25">
+        <v>12</v>
+      </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26">
+        <v>1741</v>
+      </c>
+      <c r="I26">
+        <v>1741</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27">
+        <v>605</v>
+      </c>
+      <c r="I27">
+        <v>605</v>
+      </c>
+      <c r="J27">
+        <v>13</v>
+      </c>
+      <c r="K27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28">
+        <v>432</v>
+      </c>
+      <c r="I28">
+        <v>432</v>
+      </c>
+      <c r="J28">
         <v>15</v>
+      </c>
+      <c r="K28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29">
+        <v>474</v>
+      </c>
+      <c r="I29">
+        <v>474</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30">
+        <v>781</v>
+      </c>
+      <c r="I30">
+        <v>781</v>
+      </c>
+      <c r="J30">
+        <v>16</v>
+      </c>
+      <c r="K30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31">
+        <v>1435</v>
+      </c>
+      <c r="I31">
+        <v>1435</v>
+      </c>
+      <c r="J31">
+        <v>17</v>
+      </c>
+      <c r="K31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32">
+        <v>1045</v>
+      </c>
+      <c r="I32">
+        <v>1045</v>
+      </c>
+      <c r="J32">
+        <v>22</v>
+      </c>
+      <c r="K32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33">
+        <v>234</v>
+      </c>
+      <c r="I33">
+        <v>234</v>
+      </c>
+      <c r="J33">
+        <v>23</v>
+      </c>
+      <c r="K33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34">
+        <v>874</v>
+      </c>
+      <c r="I34">
+        <v>874</v>
+      </c>
+      <c r="J34">
+        <v>23</v>
+      </c>
+      <c r="K34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35">
+        <v>593</v>
+      </c>
+      <c r="I35">
+        <v>593</v>
+      </c>
+      <c r="J35">
+        <v>24</v>
+      </c>
+      <c r="K35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36">
+        <v>668</v>
+      </c>
+      <c r="I36">
+        <v>668</v>
+      </c>
+      <c r="J36">
+        <v>25</v>
+      </c>
+      <c r="K36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37">
+        <v>1098</v>
+      </c>
+      <c r="I37">
+        <v>1098</v>
+      </c>
+      <c r="J37">
+        <v>26</v>
+      </c>
+      <c r="K37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>537</v>
+      </c>
+      <c r="I38">
+        <v>537</v>
+      </c>
+      <c r="J38">
+        <v>30</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39">
+        <v>58</v>
+      </c>
+      <c r="I39">
+        <v>58</v>
+      </c>
+      <c r="J39">
+        <v>32</v>
+      </c>
+      <c r="K39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40">
+        <v>424</v>
+      </c>
+      <c r="I40">
+        <v>424</v>
+      </c>
+      <c r="J40">
+        <v>33</v>
+      </c>
+      <c r="K40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41">
+        <v>542</v>
+      </c>
+      <c r="I41">
+        <v>542</v>
+      </c>
+      <c r="J41">
+        <v>33</v>
+      </c>
+      <c r="K41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42">
+        <v>1046</v>
+      </c>
+      <c r="I42">
+        <v>1046</v>
+      </c>
+      <c r="J42">
+        <v>33</v>
+      </c>
+      <c r="K42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43">
+        <v>161</v>
+      </c>
+      <c r="I43">
+        <v>161</v>
+      </c>
+      <c r="J43">
+        <v>34</v>
+      </c>
+      <c r="K43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44">
+        <v>677</v>
+      </c>
+      <c r="I44">
+        <v>677</v>
+      </c>
+      <c r="J44">
+        <v>34</v>
+      </c>
+      <c r="K44">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45">
+        <v>772</v>
+      </c>
+      <c r="I45">
+        <v>772</v>
+      </c>
+      <c r="J45">
+        <v>35</v>
+      </c>
+      <c r="K45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46">
+        <v>126</v>
+      </c>
+      <c r="I46">
+        <v>126</v>
+      </c>
+      <c r="J46">
+        <v>38</v>
+      </c>
+      <c r="K46">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47">
+        <v>353</v>
+      </c>
+      <c r="I47">
+        <v>353</v>
+      </c>
+      <c r="J47">
+        <v>38</v>
+      </c>
+      <c r="K47">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48">
+        <v>1118</v>
+      </c>
+      <c r="I48">
+        <v>1118</v>
+      </c>
+      <c r="J48">
+        <v>40</v>
+      </c>
+      <c r="K48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49">
+        <v>779</v>
+      </c>
+      <c r="I49">
+        <v>779</v>
+      </c>
+      <c r="J49">
+        <v>43</v>
+      </c>
+      <c r="K49">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>199</v>
+      </c>
+      <c r="I50">
+        <v>199</v>
+      </c>
+      <c r="J50">
+        <v>46</v>
+      </c>
+      <c r="K50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51">
+        <v>575</v>
+      </c>
+      <c r="I51">
+        <v>575</v>
+      </c>
+      <c r="J51">
+        <v>46</v>
+      </c>
+      <c r="K51">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52">
+        <v>274</v>
+      </c>
+      <c r="I52">
+        <v>274</v>
+      </c>
+      <c r="J52">
+        <v>47</v>
+      </c>
+      <c r="K52">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53">
+        <v>548</v>
+      </c>
+      <c r="I53">
+        <v>548</v>
+      </c>
+      <c r="J53">
+        <v>48</v>
+      </c>
+      <c r="K53">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54">
+        <v>260</v>
+      </c>
+      <c r="I54">
+        <v>260</v>
+      </c>
+      <c r="J54">
+        <v>54</v>
+      </c>
+      <c r="K54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55">
+        <v>248</v>
+      </c>
+      <c r="I55">
+        <v>248</v>
+      </c>
+      <c r="J55">
+        <v>57</v>
+      </c>
+      <c r="K55">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56">
+        <v>178</v>
+      </c>
+      <c r="I56">
+        <v>178</v>
+      </c>
+      <c r="J56">
+        <v>63</v>
+      </c>
+      <c r="K56">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57">
+        <v>165</v>
+      </c>
+      <c r="I57">
+        <v>165</v>
+      </c>
+      <c r="J57">
+        <v>67</v>
+      </c>
+      <c r="K57">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>75</v>
+      </c>
+      <c r="K58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59">
+        <v>71</v>
+      </c>
+      <c r="I59">
+        <v>71</v>
+      </c>
+      <c r="J59">
+        <v>80</v>
+      </c>
+      <c r="K59">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60">
+        <v>29</v>
+      </c>
+      <c r="I60">
+        <v>29</v>
+      </c>
+      <c r="J60">
+        <v>96</v>
+      </c>
+      <c r="K60">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -595,42 +2947,1792 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>466</v>
+      </c>
+      <c r="I2">
+        <v>466</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>4197</v>
+      </c>
+      <c r="I3">
+        <v>4197</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>93</v>
+      </c>
+      <c r="I4">
+        <v>93</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>542</v>
+      </c>
+      <c r="I5">
+        <v>542</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>609</v>
+      </c>
+      <c r="I6">
+        <v>609</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1045</v>
+      </c>
+      <c r="I7">
+        <v>1045</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>243</v>
+      </c>
+      <c r="I8">
+        <v>243</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1010</v>
+      </c>
+      <c r="I9">
+        <v>1010</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>469</v>
+      </c>
+      <c r="I10">
+        <v>469</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>739</v>
+      </c>
+      <c r="I11">
+        <v>739</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>96</v>
+      </c>
+      <c r="I12">
+        <v>96</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>297</v>
+      </c>
+      <c r="I13">
+        <v>297</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>298</v>
+      </c>
+      <c r="I14">
+        <v>298</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>910</v>
+      </c>
+      <c r="I15">
+        <v>910</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>650</v>
+      </c>
+      <c r="I16">
+        <v>650</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>963</v>
+      </c>
+      <c r="I17">
+        <v>963</v>
+      </c>
+      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1104</v>
+      </c>
+      <c r="I18">
+        <v>1104</v>
+      </c>
+      <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1180</v>
+      </c>
+      <c r="I19">
+        <v>1180</v>
+      </c>
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1231</v>
+      </c>
+      <c r="I20">
+        <v>1231</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1332</v>
+      </c>
+      <c r="I21">
+        <v>1332</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1541</v>
+      </c>
+      <c r="I22">
+        <v>1541</v>
+      </c>
+      <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1628</v>
+      </c>
+      <c r="I23">
+        <v>1628</v>
+      </c>
+      <c r="J23">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>858</v>
+      </c>
+      <c r="I24">
+        <v>858</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>475</v>
+      </c>
+      <c r="I25">
+        <v>475</v>
+      </c>
+      <c r="J25">
         <v>15</v>
+      </c>
+      <c r="K25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>782</v>
+      </c>
+      <c r="I26">
+        <v>782</v>
+      </c>
+      <c r="J26">
+        <v>16</v>
+      </c>
+      <c r="K26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1436</v>
+      </c>
+      <c r="I27">
+        <v>1436</v>
+      </c>
+      <c r="J27">
+        <v>17</v>
+      </c>
+      <c r="K27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>535</v>
+      </c>
+      <c r="I28">
+        <v>535</v>
+      </c>
+      <c r="J28">
+        <v>21</v>
+      </c>
+      <c r="K28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1046</v>
+      </c>
+      <c r="I29">
+        <v>1046</v>
+      </c>
+      <c r="J29">
+        <v>22</v>
+      </c>
+      <c r="K29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>235</v>
+      </c>
+      <c r="I30">
+        <v>235</v>
+      </c>
+      <c r="J30">
+        <v>23</v>
+      </c>
+      <c r="K30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>875</v>
+      </c>
+      <c r="I31">
+        <v>875</v>
+      </c>
+      <c r="J31">
+        <v>23</v>
+      </c>
+      <c r="K31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>594</v>
+      </c>
+      <c r="I32">
+        <v>594</v>
+      </c>
+      <c r="J32">
+        <v>24</v>
+      </c>
+      <c r="K32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>669</v>
+      </c>
+      <c r="I33">
+        <v>669</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1099</v>
+      </c>
+      <c r="I34">
+        <v>1099</v>
+      </c>
+      <c r="J34">
+        <v>26</v>
+      </c>
+      <c r="K34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>547</v>
+      </c>
+      <c r="I35">
+        <v>547</v>
+      </c>
+      <c r="J35">
+        <v>27</v>
+      </c>
+      <c r="K35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1109</v>
+      </c>
+      <c r="I36">
+        <v>1109</v>
+      </c>
+      <c r="J36">
+        <v>28</v>
+      </c>
+      <c r="K36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>59</v>
+      </c>
+      <c r="I37">
+        <v>59</v>
+      </c>
+      <c r="J37">
+        <v>32</v>
+      </c>
+      <c r="K37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>425</v>
+      </c>
+      <c r="I38">
+        <v>425</v>
+      </c>
+      <c r="J38">
+        <v>33</v>
+      </c>
+      <c r="K38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>543</v>
+      </c>
+      <c r="I39">
+        <v>543</v>
+      </c>
+      <c r="J39">
+        <v>33</v>
+      </c>
+      <c r="K39">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1047</v>
+      </c>
+      <c r="I40">
+        <v>1047</v>
+      </c>
+      <c r="J40">
+        <v>33</v>
+      </c>
+      <c r="K40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>162</v>
+      </c>
+      <c r="I41">
+        <v>162</v>
+      </c>
+      <c r="J41">
+        <v>34</v>
+      </c>
+      <c r="K41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>678</v>
+      </c>
+      <c r="I42">
+        <v>678</v>
+      </c>
+      <c r="J42">
+        <v>34</v>
+      </c>
+      <c r="K42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>773</v>
+      </c>
+      <c r="I43">
+        <v>773</v>
+      </c>
+      <c r="J43">
+        <v>35</v>
+      </c>
+      <c r="K43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>127</v>
+      </c>
+      <c r="I44">
+        <v>127</v>
+      </c>
+      <c r="J44">
+        <v>38</v>
+      </c>
+      <c r="K44">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1119</v>
+      </c>
+      <c r="I45">
+        <v>1119</v>
+      </c>
+      <c r="J45">
+        <v>40</v>
+      </c>
+      <c r="K45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>780</v>
+      </c>
+      <c r="I46">
+        <v>780</v>
+      </c>
+      <c r="J46">
+        <v>43</v>
+      </c>
+      <c r="K46">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>576</v>
+      </c>
+      <c r="I47">
+        <v>576</v>
+      </c>
+      <c r="J47">
+        <v>46</v>
+      </c>
+      <c r="K47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>275</v>
+      </c>
+      <c r="I48">
+        <v>275</v>
+      </c>
+      <c r="J48">
+        <v>47</v>
+      </c>
+      <c r="K48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>249</v>
+      </c>
+      <c r="I49">
+        <v>249</v>
+      </c>
+      <c r="J49">
+        <v>57</v>
+      </c>
+      <c r="K49">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>179</v>
+      </c>
+      <c r="I50">
+        <v>179</v>
+      </c>
+      <c r="J50">
+        <v>63</v>
+      </c>
+      <c r="K50">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>72</v>
+      </c>
+      <c r="I51">
+        <v>72</v>
+      </c>
+      <c r="J51">
+        <v>80</v>
+      </c>
+      <c r="K51">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -640,42 +4742,3239 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4">
+        <v>2516</v>
+      </c>
+      <c r="I4">
+        <v>2516</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5">
+        <v>2999</v>
+      </c>
+      <c r="I5">
+        <v>2999</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6">
+        <v>3876</v>
+      </c>
+      <c r="I6">
+        <v>3876</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7">
+        <v>3998</v>
+      </c>
+      <c r="I7">
+        <v>3998</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H8">
+        <v>4835</v>
+      </c>
+      <c r="I8">
+        <v>4835</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9">
+        <v>5568</v>
+      </c>
+      <c r="I9">
+        <v>5568</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10">
+        <v>5569</v>
+      </c>
+      <c r="I10">
+        <v>5569</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11">
+        <v>897</v>
+      </c>
+      <c r="I11">
+        <v>897</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
+        <v>243</v>
+      </c>
+      <c r="H12">
+        <v>1109</v>
+      </c>
+      <c r="I12">
+        <v>1109</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13">
+        <v>1722</v>
+      </c>
+      <c r="I13">
+        <v>1722</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14">
+        <v>1740</v>
+      </c>
+      <c r="I14">
+        <v>1740</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15">
+        <v>1741</v>
+      </c>
+      <c r="I15">
+        <v>1741</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" t="s">
+        <v>243</v>
+      </c>
+      <c r="H16">
+        <v>2025</v>
+      </c>
+      <c r="I16">
+        <v>2025</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17">
+        <v>1515</v>
+      </c>
+      <c r="I17">
+        <v>1515</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" t="s">
+        <v>246</v>
+      </c>
+      <c r="H18">
+        <v>2192</v>
+      </c>
+      <c r="I18">
+        <v>2192</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H19">
+        <v>2454</v>
+      </c>
+      <c r="I19">
+        <v>2454</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20">
+        <v>2969</v>
+      </c>
+      <c r="I20">
+        <v>2969</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H21">
+        <v>3699</v>
+      </c>
+      <c r="I21">
+        <v>3699</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22">
+        <v>68</v>
+      </c>
+      <c r="I22">
+        <v>68</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" t="s">
+        <v>248</v>
+      </c>
+      <c r="H23">
+        <v>69</v>
+      </c>
+      <c r="I23">
+        <v>69</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24">
+        <v>501</v>
+      </c>
+      <c r="I24">
+        <v>501</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25">
+        <v>629</v>
+      </c>
+      <c r="I25">
+        <v>629</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26">
+        <v>1448</v>
+      </c>
+      <c r="I26">
+        <v>1448</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" t="s">
+        <v>249</v>
+      </c>
+      <c r="H27">
+        <v>1892</v>
+      </c>
+      <c r="I27">
+        <v>1892</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28">
+        <v>2200</v>
+      </c>
+      <c r="I28">
+        <v>2200</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29">
+        <v>2510</v>
+      </c>
+      <c r="I29">
+        <v>2510</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" t="s">
+        <v>251</v>
+      </c>
+      <c r="H30">
+        <v>2810</v>
+      </c>
+      <c r="I30">
+        <v>2810</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" t="s">
+        <v>252</v>
+      </c>
+      <c r="H31">
+        <v>2816</v>
+      </c>
+      <c r="I31">
+        <v>2816</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32">
+        <v>2976</v>
+      </c>
+      <c r="I32">
+        <v>2976</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" t="s">
+        <v>253</v>
+      </c>
+      <c r="H33">
+        <v>157</v>
+      </c>
+      <c r="I33">
+        <v>157</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34">
+        <v>702</v>
+      </c>
+      <c r="I34">
+        <v>702</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" t="s">
+        <v>254</v>
+      </c>
+      <c r="H35">
+        <v>703</v>
+      </c>
+      <c r="I35">
+        <v>703</v>
+      </c>
+      <c r="J35">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" t="s">
+        <v>255</v>
+      </c>
+      <c r="H36">
+        <v>1109</v>
+      </c>
+      <c r="I36">
+        <v>1109</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37">
+        <v>1387</v>
+      </c>
+      <c r="I37">
+        <v>1387</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" t="s">
+        <v>256</v>
+      </c>
+      <c r="H38">
+        <v>1801</v>
+      </c>
+      <c r="I38">
+        <v>1801</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39">
+        <v>290</v>
+      </c>
+      <c r="I39">
+        <v>290</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" t="s">
+        <v>257</v>
+      </c>
+      <c r="H40">
+        <v>291</v>
+      </c>
+      <c r="I40">
+        <v>291</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41">
+        <v>716</v>
+      </c>
+      <c r="I41">
+        <v>716</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" t="s">
+        <v>258</v>
+      </c>
+      <c r="H42">
+        <v>717</v>
+      </c>
+      <c r="I42">
+        <v>717</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" t="s">
+        <v>259</v>
+      </c>
+      <c r="H43">
+        <v>990</v>
+      </c>
+      <c r="I43">
+        <v>990</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44">
+        <v>524</v>
+      </c>
+      <c r="I44">
+        <v>524</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" t="s">
+        <v>257</v>
+      </c>
+      <c r="H45">
+        <v>41</v>
+      </c>
+      <c r="I45">
+        <v>41</v>
+      </c>
+      <c r="J45">
+        <v>11</v>
+      </c>
+      <c r="K45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" t="s">
+        <v>260</v>
+      </c>
+      <c r="H46">
+        <v>493</v>
+      </c>
+      <c r="I46">
+        <v>493</v>
+      </c>
+      <c r="J46">
+        <v>11</v>
+      </c>
+      <c r="K46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" t="s">
+        <v>261</v>
+      </c>
+      <c r="H47">
+        <v>697</v>
+      </c>
+      <c r="I47">
+        <v>697</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+      <c r="K47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48">
+        <v>698</v>
+      </c>
+      <c r="I48">
+        <v>698</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" t="s">
+        <v>263</v>
+      </c>
+      <c r="H49">
+        <v>864</v>
+      </c>
+      <c r="I49">
+        <v>864</v>
+      </c>
+      <c r="J49">
+        <v>11</v>
+      </c>
+      <c r="K49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" t="s">
+        <v>238</v>
+      </c>
+      <c r="H50">
+        <v>938</v>
+      </c>
+      <c r="I50">
+        <v>938</v>
+      </c>
+      <c r="J50">
+        <v>11</v>
+      </c>
+      <c r="K50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" t="s">
+        <v>257</v>
+      </c>
+      <c r="H51">
+        <v>941</v>
+      </c>
+      <c r="I51">
+        <v>941</v>
+      </c>
+      <c r="J51">
+        <v>11</v>
+      </c>
+      <c r="K51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" t="s">
+        <v>264</v>
+      </c>
+      <c r="H52">
+        <v>1367</v>
+      </c>
+      <c r="I52">
+        <v>1367</v>
+      </c>
+      <c r="J52">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" t="s">
+        <v>265</v>
+      </c>
+      <c r="H53">
+        <v>1669</v>
+      </c>
+      <c r="I53">
+        <v>1669</v>
+      </c>
+      <c r="J53">
+        <v>11</v>
+      </c>
+      <c r="K53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H54">
+        <v>1670</v>
+      </c>
+      <c r="I54">
+        <v>1670</v>
+      </c>
+      <c r="J54">
+        <v>11</v>
+      </c>
+      <c r="K54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" t="s">
+        <v>267</v>
+      </c>
+      <c r="H55">
+        <v>1455</v>
+      </c>
+      <c r="I55">
+        <v>1455</v>
+      </c>
+      <c r="J55">
+        <v>12</v>
+      </c>
+      <c r="K55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" t="s">
+        <v>268</v>
+      </c>
+      <c r="H56">
+        <v>155</v>
+      </c>
+      <c r="I56">
+        <v>155</v>
+      </c>
+      <c r="J56">
+        <v>13</v>
+      </c>
+      <c r="K56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" t="s">
+        <v>269</v>
+      </c>
+      <c r="H57">
+        <v>224</v>
+      </c>
+      <c r="I57">
+        <v>224</v>
+      </c>
+      <c r="J57">
+        <v>13</v>
+      </c>
+      <c r="K57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" t="s">
+        <v>268</v>
+      </c>
+      <c r="H58">
+        <v>688</v>
+      </c>
+      <c r="I58">
+        <v>688</v>
+      </c>
+      <c r="J58">
+        <v>13</v>
+      </c>
+      <c r="K58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" t="s">
+        <v>270</v>
+      </c>
+      <c r="H59">
+        <v>702</v>
+      </c>
+      <c r="I59">
+        <v>702</v>
+      </c>
+      <c r="J59">
+        <v>13</v>
+      </c>
+      <c r="K59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" t="s">
+        <v>270</v>
+      </c>
+      <c r="H60">
+        <v>766</v>
+      </c>
+      <c r="I60">
+        <v>766</v>
+      </c>
+      <c r="J60">
+        <v>13</v>
+      </c>
+      <c r="K60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" t="s">
+        <v>271</v>
+      </c>
+      <c r="H61">
+        <v>17</v>
+      </c>
+      <c r="I61">
+        <v>17</v>
+      </c>
+      <c r="J61">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" t="s">
+        <v>272</v>
+      </c>
+      <c r="H62">
+        <v>695</v>
+      </c>
+      <c r="I62">
+        <v>695</v>
+      </c>
+      <c r="J62">
+        <v>14</v>
+      </c>
+      <c r="K62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" t="s">
+        <v>273</v>
+      </c>
+      <c r="H63">
+        <v>54</v>
+      </c>
+      <c r="I63">
+        <v>54</v>
+      </c>
+      <c r="J63">
         <v>15</v>
+      </c>
+      <c r="K63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64">
+        <v>55</v>
+      </c>
+      <c r="I64">
+        <v>55</v>
+      </c>
+      <c r="J64">
+        <v>15</v>
+      </c>
+      <c r="K64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" t="s">
+        <v>275</v>
+      </c>
+      <c r="H65">
+        <v>302</v>
+      </c>
+      <c r="I65">
+        <v>302</v>
+      </c>
+      <c r="J65">
+        <v>15</v>
+      </c>
+      <c r="K65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" t="s">
+        <v>238</v>
+      </c>
+      <c r="H66">
+        <v>1063</v>
+      </c>
+      <c r="I66">
+        <v>1063</v>
+      </c>
+      <c r="J66">
+        <v>16</v>
+      </c>
+      <c r="K66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" t="s">
+        <v>276</v>
+      </c>
+      <c r="H67">
+        <v>1396</v>
+      </c>
+      <c r="I67">
+        <v>1396</v>
+      </c>
+      <c r="J67">
+        <v>16</v>
+      </c>
+      <c r="K67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" t="s">
+        <v>238</v>
+      </c>
+      <c r="H68">
+        <v>1752</v>
+      </c>
+      <c r="I68">
+        <v>1752</v>
+      </c>
+      <c r="J68">
+        <v>16</v>
+      </c>
+      <c r="K68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" t="s">
+        <v>242</v>
+      </c>
+      <c r="H69">
+        <v>356</v>
+      </c>
+      <c r="I69">
+        <v>356</v>
+      </c>
+      <c r="J69">
+        <v>19</v>
+      </c>
+      <c r="K69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" t="s">
+        <v>245</v>
+      </c>
+      <c r="H70">
+        <v>434</v>
+      </c>
+      <c r="I70">
+        <v>434</v>
+      </c>
+      <c r="J70">
+        <v>19</v>
+      </c>
+      <c r="K70">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" t="s">
+        <v>277</v>
+      </c>
+      <c r="H71">
+        <v>540</v>
+      </c>
+      <c r="I71">
+        <v>540</v>
+      </c>
+      <c r="J71">
+        <v>20</v>
+      </c>
+      <c r="K71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" t="s">
+        <v>278</v>
+      </c>
+      <c r="H72">
+        <v>1335</v>
+      </c>
+      <c r="I72">
+        <v>1335</v>
+      </c>
+      <c r="J72">
+        <v>20</v>
+      </c>
+      <c r="K72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="D73" t="s">
+        <v>195</v>
+      </c>
+      <c r="E73" t="s">
+        <v>271</v>
+      </c>
+      <c r="H73">
+        <v>413</v>
+      </c>
+      <c r="I73">
+        <v>413</v>
+      </c>
+      <c r="J73">
+        <v>22</v>
+      </c>
+      <c r="K73">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" t="s">
+        <v>279</v>
+      </c>
+      <c r="H74">
+        <v>491</v>
+      </c>
+      <c r="I74">
+        <v>491</v>
+      </c>
+      <c r="J74">
+        <v>22</v>
+      </c>
+      <c r="K74">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" t="s">
+        <v>238</v>
+      </c>
+      <c r="H75">
+        <v>892</v>
+      </c>
+      <c r="I75">
+        <v>892</v>
+      </c>
+      <c r="J75">
+        <v>22</v>
+      </c>
+      <c r="K75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" t="s">
+        <v>238</v>
+      </c>
+      <c r="H76">
+        <v>658</v>
+      </c>
+      <c r="I76">
+        <v>658</v>
+      </c>
+      <c r="J76">
+        <v>23</v>
+      </c>
+      <c r="K76">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" t="s">
+        <v>278</v>
+      </c>
+      <c r="H77">
+        <v>666</v>
+      </c>
+      <c r="I77">
+        <v>666</v>
+      </c>
+      <c r="J77">
+        <v>23</v>
+      </c>
+      <c r="K77">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" t="s">
+        <v>280</v>
+      </c>
+      <c r="H78">
+        <v>212</v>
+      </c>
+      <c r="I78">
+        <v>212</v>
+      </c>
+      <c r="J78">
+        <v>24</v>
+      </c>
+      <c r="K78">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>160</v>
+      </c>
+      <c r="E79" t="s">
+        <v>239</v>
+      </c>
+      <c r="H79">
+        <v>291</v>
+      </c>
+      <c r="I79">
+        <v>291</v>
+      </c>
+      <c r="J79">
+        <v>24</v>
+      </c>
+      <c r="K79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="D80" t="s">
+        <v>160</v>
+      </c>
+      <c r="E80" t="s">
+        <v>239</v>
+      </c>
+      <c r="H80">
+        <v>295</v>
+      </c>
+      <c r="I80">
+        <v>295</v>
+      </c>
+      <c r="J80">
+        <v>24</v>
+      </c>
+      <c r="K80">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" t="s">
+        <v>281</v>
+      </c>
+      <c r="H81">
+        <v>752</v>
+      </c>
+      <c r="I81">
+        <v>752</v>
+      </c>
+      <c r="J81">
+        <v>24</v>
+      </c>
+      <c r="K81">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" t="s">
+        <v>238</v>
+      </c>
+      <c r="H82">
+        <v>889</v>
+      </c>
+      <c r="I82">
+        <v>889</v>
+      </c>
+      <c r="J82">
+        <v>24</v>
+      </c>
+      <c r="K82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="D83" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" t="s">
+        <v>257</v>
+      </c>
+      <c r="H83">
+        <v>991</v>
+      </c>
+      <c r="I83">
+        <v>991</v>
+      </c>
+      <c r="J83">
+        <v>24</v>
+      </c>
+      <c r="K83">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
+        <v>206</v>
+      </c>
+      <c r="E84" t="s">
+        <v>282</v>
+      </c>
+      <c r="H84">
+        <v>372</v>
+      </c>
+      <c r="I84">
+        <v>372</v>
+      </c>
+      <c r="J84">
+        <v>25</v>
+      </c>
+      <c r="K84">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="D85" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" t="s">
+        <v>256</v>
+      </c>
+      <c r="H85">
+        <v>316</v>
+      </c>
+      <c r="I85">
+        <v>316</v>
+      </c>
+      <c r="J85">
+        <v>26</v>
+      </c>
+      <c r="K85">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="D86" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" t="s">
+        <v>274</v>
+      </c>
+      <c r="H86">
+        <v>1277</v>
+      </c>
+      <c r="I86">
+        <v>1277</v>
+      </c>
+      <c r="J86">
+        <v>26</v>
+      </c>
+      <c r="K86">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="D87" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" t="s">
+        <v>274</v>
+      </c>
+      <c r="H87">
+        <v>1279</v>
+      </c>
+      <c r="I87">
+        <v>1279</v>
+      </c>
+      <c r="J87">
+        <v>26</v>
+      </c>
+      <c r="K87">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="D88" t="s">
+        <v>207</v>
+      </c>
+      <c r="E88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H88">
+        <v>220</v>
+      </c>
+      <c r="I88">
+        <v>220</v>
+      </c>
+      <c r="J88">
+        <v>27</v>
+      </c>
+      <c r="K88">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="D89" t="s">
+        <v>208</v>
+      </c>
+      <c r="E89" t="s">
+        <v>284</v>
+      </c>
+      <c r="H89">
+        <v>269</v>
+      </c>
+      <c r="I89">
+        <v>269</v>
+      </c>
+      <c r="J89">
+        <v>27</v>
+      </c>
+      <c r="K89">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="D90" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" t="s">
+        <v>285</v>
+      </c>
+      <c r="H90">
+        <v>1231</v>
+      </c>
+      <c r="I90">
+        <v>1231</v>
+      </c>
+      <c r="J90">
+        <v>28</v>
+      </c>
+      <c r="K90">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="D91" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" t="s">
+        <v>286</v>
+      </c>
+      <c r="H91">
+        <v>222</v>
+      </c>
+      <c r="I91">
+        <v>222</v>
+      </c>
+      <c r="J91">
+        <v>31</v>
+      </c>
+      <c r="K91">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="D92" t="s">
+        <v>211</v>
+      </c>
+      <c r="E92" t="s">
+        <v>287</v>
+      </c>
+      <c r="H92">
+        <v>46</v>
+      </c>
+      <c r="I92">
+        <v>46</v>
+      </c>
+      <c r="J92">
+        <v>33</v>
+      </c>
+      <c r="K92">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="D93" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93">
+        <v>559</v>
+      </c>
+      <c r="I93">
+        <v>559</v>
+      </c>
+      <c r="J93">
+        <v>33</v>
+      </c>
+      <c r="K93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="D94" t="s">
+        <v>212</v>
+      </c>
+      <c r="E94" t="s">
+        <v>288</v>
+      </c>
+      <c r="H94">
+        <v>560</v>
+      </c>
+      <c r="I94">
+        <v>560</v>
+      </c>
+      <c r="J94">
+        <v>33</v>
+      </c>
+      <c r="K94">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="D95" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" t="s">
+        <v>289</v>
+      </c>
+      <c r="H95">
+        <v>939</v>
+      </c>
+      <c r="I95">
+        <v>939</v>
+      </c>
+      <c r="J95">
+        <v>33</v>
+      </c>
+      <c r="K95">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="D96" t="s">
+        <v>195</v>
+      </c>
+      <c r="E96" t="s">
+        <v>271</v>
+      </c>
+      <c r="H96">
+        <v>105</v>
+      </c>
+      <c r="I96">
+        <v>105</v>
+      </c>
+      <c r="J96">
+        <v>34</v>
+      </c>
+      <c r="K96">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="D97" t="s">
+        <v>214</v>
+      </c>
+      <c r="E97" t="s">
+        <v>290</v>
+      </c>
+      <c r="H97">
+        <v>268</v>
+      </c>
+      <c r="I97">
+        <v>268</v>
+      </c>
+      <c r="J97">
+        <v>34</v>
+      </c>
+      <c r="K97">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="D98" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98" t="s">
+        <v>238</v>
+      </c>
+      <c r="H98">
+        <v>11</v>
+      </c>
+      <c r="I98">
+        <v>11</v>
+      </c>
+      <c r="J98">
+        <v>36</v>
+      </c>
+      <c r="K98">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="D99" t="s">
+        <v>164</v>
+      </c>
+      <c r="E99" t="s">
+        <v>242</v>
+      </c>
+      <c r="H99">
+        <v>529</v>
+      </c>
+      <c r="I99">
+        <v>529</v>
+      </c>
+      <c r="J99">
+        <v>36</v>
+      </c>
+      <c r="K99">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="D100" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" t="s">
+        <v>236</v>
+      </c>
+      <c r="H100">
+        <v>566</v>
+      </c>
+      <c r="I100">
+        <v>566</v>
+      </c>
+      <c r="J100">
+        <v>36</v>
+      </c>
+      <c r="K100">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="D101" t="s">
+        <v>195</v>
+      </c>
+      <c r="E101" t="s">
+        <v>271</v>
+      </c>
+      <c r="H101">
+        <v>124</v>
+      </c>
+      <c r="I101">
+        <v>124</v>
+      </c>
+      <c r="J101">
+        <v>37</v>
+      </c>
+      <c r="K101">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="D102" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102" t="s">
+        <v>265</v>
+      </c>
+      <c r="H102">
+        <v>131</v>
+      </c>
+      <c r="I102">
+        <v>131</v>
+      </c>
+      <c r="J102">
+        <v>37</v>
+      </c>
+      <c r="K102">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="D103" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" t="s">
+        <v>291</v>
+      </c>
+      <c r="H103">
+        <v>132</v>
+      </c>
+      <c r="I103">
+        <v>132</v>
+      </c>
+      <c r="J103">
+        <v>37</v>
+      </c>
+      <c r="K103">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="D104" t="s">
+        <v>157</v>
+      </c>
+      <c r="E104" t="s">
+        <v>236</v>
+      </c>
+      <c r="H104">
+        <v>591</v>
+      </c>
+      <c r="I104">
+        <v>591</v>
+      </c>
+      <c r="J104">
+        <v>37</v>
+      </c>
+      <c r="K104">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="D105" t="s">
+        <v>202</v>
+      </c>
+      <c r="E105" t="s">
+        <v>278</v>
+      </c>
+      <c r="H105">
+        <v>200</v>
+      </c>
+      <c r="I105">
+        <v>200</v>
+      </c>
+      <c r="J105">
+        <v>38</v>
+      </c>
+      <c r="K105">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="D106" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" t="s">
+        <v>292</v>
+      </c>
+      <c r="H106">
+        <v>375</v>
+      </c>
+      <c r="I106">
+        <v>375</v>
+      </c>
+      <c r="J106">
+        <v>41</v>
+      </c>
+      <c r="K106">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="D107" t="s">
+        <v>217</v>
+      </c>
+      <c r="E107" t="s">
+        <v>293</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>4</v>
+      </c>
+      <c r="J107">
+        <v>42</v>
+      </c>
+      <c r="K107">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="D108" t="s">
+        <v>159</v>
+      </c>
+      <c r="E108" t="s">
+        <v>238</v>
+      </c>
+      <c r="H108">
+        <v>847</v>
+      </c>
+      <c r="I108">
+        <v>847</v>
+      </c>
+      <c r="J108">
+        <v>42</v>
+      </c>
+      <c r="K108">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="D109" t="s">
+        <v>195</v>
+      </c>
+      <c r="E109" t="s">
+        <v>271</v>
+      </c>
+      <c r="H109">
+        <v>849</v>
+      </c>
+      <c r="I109">
+        <v>849</v>
+      </c>
+      <c r="J109">
+        <v>42</v>
+      </c>
+      <c r="K109">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="D110" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110" t="s">
+        <v>238</v>
+      </c>
+      <c r="H110">
+        <v>418</v>
+      </c>
+      <c r="I110">
+        <v>418</v>
+      </c>
+      <c r="J110">
+        <v>43</v>
+      </c>
+      <c r="K110">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="D111" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111" t="s">
+        <v>294</v>
+      </c>
+      <c r="H111">
+        <v>503</v>
+      </c>
+      <c r="I111">
+        <v>503</v>
+      </c>
+      <c r="J111">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="D112" t="s">
+        <v>164</v>
+      </c>
+      <c r="E112" t="s">
+        <v>242</v>
+      </c>
+      <c r="H112">
+        <v>594</v>
+      </c>
+      <c r="I112">
+        <v>594</v>
+      </c>
+      <c r="J112">
+        <v>43</v>
+      </c>
+      <c r="K112">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="D113" t="s">
+        <v>164</v>
+      </c>
+      <c r="E113" t="s">
+        <v>242</v>
+      </c>
+      <c r="H113">
+        <v>627</v>
+      </c>
+      <c r="I113">
+        <v>627</v>
+      </c>
+      <c r="J113">
+        <v>43</v>
+      </c>
+      <c r="K113">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="D114" t="s">
+        <v>207</v>
+      </c>
+      <c r="E114" t="s">
+        <v>283</v>
+      </c>
+      <c r="H114">
+        <v>248</v>
+      </c>
+      <c r="I114">
+        <v>248</v>
+      </c>
+      <c r="J114">
+        <v>46</v>
+      </c>
+      <c r="K114">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="D115" t="s">
+        <v>183</v>
+      </c>
+      <c r="E115" t="s">
+        <v>260</v>
+      </c>
+      <c r="H115">
+        <v>416</v>
+      </c>
+      <c r="I115">
+        <v>416</v>
+      </c>
+      <c r="J115">
+        <v>46</v>
+      </c>
+      <c r="K115">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="D116" t="s">
+        <v>165</v>
+      </c>
+      <c r="E116" t="s">
+        <v>243</v>
+      </c>
+      <c r="H116">
+        <v>514</v>
+      </c>
+      <c r="I116">
+        <v>514</v>
+      </c>
+      <c r="J116">
+        <v>47</v>
+      </c>
+      <c r="K116">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="D117" t="s">
+        <v>167</v>
+      </c>
+      <c r="E117" t="s">
+        <v>245</v>
+      </c>
+      <c r="H117">
+        <v>22</v>
+      </c>
+      <c r="I117">
+        <v>22</v>
+      </c>
+      <c r="J117">
+        <v>48</v>
+      </c>
+      <c r="K117">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="D118" t="s">
+        <v>167</v>
+      </c>
+      <c r="E118" t="s">
+        <v>245</v>
+      </c>
+      <c r="H118">
+        <v>341</v>
+      </c>
+      <c r="I118">
+        <v>341</v>
+      </c>
+      <c r="J118">
+        <v>48</v>
+      </c>
+      <c r="K118">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="D119" t="s">
+        <v>162</v>
+      </c>
+      <c r="E119" t="s">
+        <v>134</v>
+      </c>
+      <c r="H119">
+        <v>196</v>
+      </c>
+      <c r="I119">
+        <v>196</v>
+      </c>
+      <c r="J119">
+        <v>49</v>
+      </c>
+      <c r="K119">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="D120" t="s">
+        <v>219</v>
+      </c>
+      <c r="E120" t="s">
+        <v>295</v>
+      </c>
+      <c r="H120">
+        <v>197</v>
+      </c>
+      <c r="I120">
+        <v>197</v>
+      </c>
+      <c r="J120">
+        <v>49</v>
+      </c>
+      <c r="K120">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="D121" t="s">
+        <v>162</v>
+      </c>
+      <c r="E121" t="s">
+        <v>134</v>
+      </c>
+      <c r="H121">
+        <v>221</v>
+      </c>
+      <c r="I121">
+        <v>221</v>
+      </c>
+      <c r="J121">
+        <v>49</v>
+      </c>
+      <c r="K121">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="D122" t="s">
+        <v>220</v>
+      </c>
+      <c r="E122" t="s">
+        <v>296</v>
+      </c>
+      <c r="H122">
+        <v>222</v>
+      </c>
+      <c r="I122">
+        <v>222</v>
+      </c>
+      <c r="J122">
+        <v>49</v>
+      </c>
+      <c r="K122">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="D123" t="s">
+        <v>221</v>
+      </c>
+      <c r="E123" t="s">
+        <v>297</v>
+      </c>
+      <c r="H123">
+        <v>251</v>
+      </c>
+      <c r="I123">
+        <v>251</v>
+      </c>
+      <c r="J123">
+        <v>49</v>
+      </c>
+      <c r="K123">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="D124" t="s">
+        <v>222</v>
+      </c>
+      <c r="E124" t="s">
+        <v>298</v>
+      </c>
+      <c r="H124">
+        <v>223</v>
+      </c>
+      <c r="I124">
+        <v>223</v>
+      </c>
+      <c r="J124">
+        <v>52</v>
+      </c>
+      <c r="K124">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="D125" t="s">
+        <v>223</v>
+      </c>
+      <c r="E125" t="s">
+        <v>299</v>
+      </c>
+      <c r="H125">
+        <v>37</v>
+      </c>
+      <c r="I125">
+        <v>37</v>
+      </c>
+      <c r="J125">
+        <v>54</v>
+      </c>
+      <c r="K125">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="D126" t="s">
+        <v>224</v>
+      </c>
+      <c r="E126" t="s">
+        <v>300</v>
+      </c>
+      <c r="H126">
+        <v>33</v>
+      </c>
+      <c r="I126">
+        <v>33</v>
+      </c>
+      <c r="J126">
+        <v>58</v>
+      </c>
+      <c r="K126">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="D127" t="s">
+        <v>225</v>
+      </c>
+      <c r="E127" t="s">
+        <v>301</v>
+      </c>
+      <c r="H127">
+        <v>213</v>
+      </c>
+      <c r="I127">
+        <v>213</v>
+      </c>
+      <c r="J127">
+        <v>60</v>
+      </c>
+      <c r="K127">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="D128" t="s">
+        <v>226</v>
+      </c>
+      <c r="E128" t="s">
+        <v>302</v>
+      </c>
+      <c r="H128">
+        <v>53</v>
+      </c>
+      <c r="I128">
+        <v>53</v>
+      </c>
+      <c r="J128">
+        <v>63</v>
+      </c>
+      <c r="K128">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="D129" t="s">
+        <v>227</v>
+      </c>
+      <c r="E129" t="s">
+        <v>303</v>
+      </c>
+      <c r="H129">
+        <v>96</v>
+      </c>
+      <c r="I129">
+        <v>96</v>
+      </c>
+      <c r="J129">
+        <v>65</v>
+      </c>
+      <c r="K129">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="D130" t="s">
+        <v>227</v>
+      </c>
+      <c r="E130" t="s">
+        <v>303</v>
+      </c>
+      <c r="H130">
+        <v>107</v>
+      </c>
+      <c r="I130">
+        <v>107</v>
+      </c>
+      <c r="J130">
+        <v>65</v>
+      </c>
+      <c r="K130">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="D131" t="s">
+        <v>228</v>
+      </c>
+      <c r="E131" t="s">
+        <v>304</v>
+      </c>
+      <c r="H131">
+        <v>80</v>
+      </c>
+      <c r="I131">
+        <v>80</v>
+      </c>
+      <c r="J131">
+        <v>67</v>
+      </c>
+      <c r="K131">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="D132" t="s">
+        <v>159</v>
+      </c>
+      <c r="E132" t="s">
+        <v>238</v>
+      </c>
+      <c r="H132">
+        <v>248</v>
+      </c>
+      <c r="I132">
+        <v>248</v>
+      </c>
+      <c r="J132">
+        <v>67</v>
+      </c>
+      <c r="K132">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="D133" t="s">
+        <v>229</v>
+      </c>
+      <c r="E133" t="s">
+        <v>305</v>
+      </c>
+      <c r="H133">
+        <v>188</v>
+      </c>
+      <c r="I133">
+        <v>188</v>
+      </c>
+      <c r="J133">
+        <v>68</v>
+      </c>
+      <c r="K133">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="D134" t="s">
+        <v>230</v>
+      </c>
+      <c r="E134" t="s">
+        <v>306</v>
+      </c>
+      <c r="H134">
+        <v>189</v>
+      </c>
+      <c r="I134">
+        <v>189</v>
+      </c>
+      <c r="J134">
+        <v>68</v>
+      </c>
+      <c r="K134">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="D135" t="s">
+        <v>231</v>
+      </c>
+      <c r="E135" t="s">
+        <v>307</v>
+      </c>
+      <c r="H135">
+        <v>34</v>
+      </c>
+      <c r="I135">
+        <v>34</v>
+      </c>
+      <c r="J135">
+        <v>80</v>
+      </c>
+      <c r="K135">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="D136" t="s">
+        <v>232</v>
+      </c>
+      <c r="E136" t="s">
+        <v>308</v>
+      </c>
+      <c r="H136">
+        <v>35</v>
+      </c>
+      <c r="I136">
+        <v>35</v>
+      </c>
+      <c r="J136">
+        <v>80</v>
+      </c>
+      <c r="K136">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="D137" t="s">
+        <v>233</v>
+      </c>
+      <c r="E137" t="s">
+        <v>309</v>
+      </c>
+      <c r="H137">
+        <v>66</v>
+      </c>
+      <c r="I137">
+        <v>66</v>
+      </c>
+      <c r="J137">
+        <v>89</v>
+      </c>
+      <c r="K137">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="D138" t="s">
+        <v>234</v>
+      </c>
+      <c r="E138" t="s">
+        <v>310</v>
+      </c>
+      <c r="H138">
+        <v>76</v>
+      </c>
+      <c r="I138">
+        <v>76</v>
+      </c>
+      <c r="J138">
+        <v>89</v>
+      </c>
+      <c r="K138">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="D139" t="s">
+        <v>235</v>
+      </c>
+      <c r="E139" t="s">
+        <v>311</v>
+      </c>
+      <c r="H139">
+        <v>48</v>
+      </c>
+      <c r="I139">
+        <v>48</v>
+      </c>
+      <c r="J139">
+        <v>92</v>
+      </c>
+      <c r="K139">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="D140" t="s">
+        <v>198</v>
+      </c>
+      <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="H140">
+        <v>20</v>
+      </c>
+      <c r="I140">
+        <v>20</v>
+      </c>
+      <c r="J140">
+        <v>97</v>
+      </c>
+      <c r="K140">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -685,24 +7984,58 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3">
+        <v>108</v>
+      </c>
+      <c r="E3">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -712,24 +8045,41 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>318</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>167</v>
+      </c>
+      <c r="C2">
+        <v>168</v>
+      </c>
+      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -739,48 +8089,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>